--- a/correlation/neighbourhood/CIFAR10/Angle_output.xlsx
+++ b/correlation/neighbourhood/CIFAR10/Angle_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>LeNet</t>
   </si>
@@ -58,94 +58,97 @@
     <t>Model_TDA</t>
   </si>
   <si>
-    <t>[0.2889 0.3197]</t>
-  </si>
-  <si>
-    <t>[0.1919 0.4167]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.5864]</t>
-  </si>
-  <si>
-    <t>[0.303  0.3056]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.5753]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.5697]</t>
-  </si>
-  <si>
-    <t>[0.0444 0.5642]</t>
-  </si>
-  <si>
-    <t>[0.0589 0.2889]</t>
-  </si>
-  <si>
-    <t>[0.     0.4167]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.3256]</t>
-  </si>
-  <si>
-    <t>[0.0422 0.3056]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.3145]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.3089]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.3311]</t>
-  </si>
-  <si>
-    <t>[0.1459 0.2889]</t>
-  </si>
-  <si>
-    <t>[0.0181 0.4167]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.4126]</t>
-  </si>
-  <si>
-    <t>[0.1292 0.3056]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.4015]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.3959]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.4181]</t>
-  </si>
-  <si>
-    <t>[0.0278 0.32  ]</t>
-  </si>
-  <si>
-    <t>[0.1025 0.2889]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.3692]</t>
-  </si>
-  <si>
-    <t>[0.0858 0.3056]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.3581]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.3525]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.3747]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.5919]</t>
-  </si>
-  <si>
-    <t>[0.1222 0.3126]</t>
+    <t>[0.2812 0.3274]</t>
+  </si>
+  <si>
+    <t>[0.1357 0.4729]</t>
+  </si>
+  <si>
+    <t>[0.     0.7274]</t>
+  </si>
+  <si>
+    <t>[0.3024 0.3062]</t>
+  </si>
+  <si>
+    <t>[0.     0.7108]</t>
+  </si>
+  <si>
+    <t>[0.     0.7024]</t>
+  </si>
+  <si>
+    <t>[0.     0.6942]</t>
+  </si>
+  <si>
+    <t>[0.0014 0.3464]</t>
+  </si>
+  <si>
+    <t>[0.     0.5381]</t>
+  </si>
+  <si>
+    <t>[0.     0.4014]</t>
+  </si>
+  <si>
+    <t>[0.     0.3714]</t>
+  </si>
+  <si>
+    <t>[0.     0.3848]</t>
+  </si>
+  <si>
+    <t>[0.     0.3764]</t>
+  </si>
+  <si>
+    <t>[0.     0.4097]</t>
+  </si>
+  <si>
+    <t>[0.1102 0.3246]</t>
+  </si>
+  <si>
+    <t>[0.     0.5164]</t>
+  </si>
+  <si>
+    <t>[0.     0.5102]</t>
+  </si>
+  <si>
+    <t>[0.0851 0.3497]</t>
+  </si>
+  <si>
+    <t>[0.     0.4936]</t>
+  </si>
+  <si>
+    <t>[0.     0.4852]</t>
+  </si>
+  <si>
+    <t>[0.     0.5185]</t>
+  </si>
+  <si>
+    <t>[0.    0.393]</t>
+  </si>
+  <si>
+    <t>[0.0559 0.3355]</t>
+  </si>
+  <si>
+    <t>[0.     0.5272]</t>
+  </si>
+  <si>
+    <t>[0.    0.456]</t>
+  </si>
+  <si>
+    <t>[0.0309 0.3605]</t>
+  </si>
+  <si>
+    <t>[0.     0.4393]</t>
+  </si>
+  <si>
+    <t>[0.     0.4309]</t>
+  </si>
+  <si>
+    <t>[0.     0.4642]</t>
+  </si>
+  <si>
+    <t>[0.     0.7357]</t>
+  </si>
+  <si>
+    <t>[0.0746 0.3602]</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -601,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -627,7 +630,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -653,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -679,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -705,13 +708,13 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/neighbourhood/CIFAR10/Angle_output.xlsx
+++ b/correlation/neighbourhood/CIFAR10/Angle_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>LeNet</t>
   </si>
@@ -40,148 +40,106 @@
     <t>r0</t>
   </si>
   <si>
-    <t>[0.     0.2889]</t>
-  </si>
-  <si>
-    <t>[0.0667 0.2889]</t>
-  </si>
-  <si>
-    <t>[0.1889 0.2889]</t>
-  </si>
-  <si>
-    <t>[0.2889 0.4889]</t>
-  </si>
-  <si>
-    <t>[0.2889 0.7999]</t>
+    <t>[0.0889 0.4889]</t>
+  </si>
+  <si>
+    <t>[0.1778 0.4   ]</t>
+  </si>
+  <si>
+    <t>[0.1444 0.4334]</t>
+  </si>
+  <si>
+    <t>[0.2389 0.3389]</t>
+  </si>
+  <si>
+    <t>[0.1167 0.4611]</t>
+  </si>
+  <si>
+    <t>[0.1889 0.3889]</t>
+  </si>
+  <si>
+    <t>[0.0334 0.5444]</t>
   </si>
   <si>
     <t>R0</t>
   </si>
   <si>
-    <t>[0.     0.4167]</t>
-  </si>
-  <si>
-    <t>[0.0611 0.4167]</t>
-  </si>
-  <si>
-    <t>[0.3611 0.4167]</t>
-  </si>
-  <si>
-    <t>[0.4167 0.6721]</t>
+    <t>[0.0889 0.7445]</t>
+  </si>
+  <si>
+    <t>[0.1778 0.6556]</t>
+  </si>
+  <si>
+    <t>[0.1444 0.689 ]</t>
+  </si>
+  <si>
+    <t>[0.2389 0.5945]</t>
+  </si>
+  <si>
+    <t>[0.1167 0.7167]</t>
+  </si>
+  <si>
+    <t>[0.3889 0.4445]</t>
+  </si>
+  <si>
+    <t>[0.289  0.5444]</t>
   </si>
   <si>
     <t>rk_max_index</t>
   </si>
   <si>
-    <t>[0.0222 0.1556]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.3334]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.2666]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.4556]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.2112]</t>
-  </si>
-  <si>
-    <t>[0.0222 0.7556]</t>
-  </si>
-  <si>
-    <t>[0.0222 1.0666]</t>
+    <t>[0.     0.0889]</t>
+  </si>
+  <si>
+    <t>[0.     0.1778]</t>
+  </si>
+  <si>
+    <t>[0.     0.1444]</t>
+  </si>
+  <si>
+    <t>[0.     0.2389]</t>
+  </si>
+  <si>
+    <t>[0.     0.1167]</t>
+  </si>
+  <si>
+    <t>[0.     0.3889]</t>
+  </si>
+  <si>
+    <t>[0.     0.5444]</t>
   </si>
   <si>
     <t>rk_max</t>
   </si>
   <si>
-    <t>[0.     0.3056]</t>
-  </si>
-  <si>
-    <t>[0.05   0.3056]</t>
-  </si>
-  <si>
-    <t>[0.1722 0.3056]</t>
-  </si>
-  <si>
-    <t>[0.3056 0.4722]</t>
-  </si>
-  <si>
-    <t>[0.3056 0.7832]</t>
+    <t>[0.0889 0.5223]</t>
+  </si>
+  <si>
+    <t>[0.1778 0.4334]</t>
+  </si>
+  <si>
+    <t>[0.1444 0.4668]</t>
+  </si>
+  <si>
+    <t>[0.2389 0.3723]</t>
+  </si>
+  <si>
+    <t>[0.1167 0.4945]</t>
+  </si>
+  <si>
+    <t>[0.2223 0.3889]</t>
+  </si>
+  <si>
+    <t>[0.0668 0.5444]</t>
   </si>
   <si>
     <t>Rk_max</t>
   </si>
   <si>
-    <t>[0.0333 0.1445]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.3223]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.2555]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.4445]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.2001]</t>
-  </si>
-  <si>
-    <t>[0.0333 0.7445]</t>
-  </si>
-  <si>
-    <t>[0.0333 1.0555]</t>
-  </si>
-  <si>
     <t>Data_TDA</t>
   </si>
   <si>
-    <t>[0.0389 0.1389]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.3167]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.2499]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.4389]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.1945]</t>
-  </si>
-  <si>
-    <t>[0.0389 0.7389]</t>
-  </si>
-  <si>
-    <t>[0.0389 1.0499]</t>
-  </si>
-  <si>
     <t>Model_TDA</t>
-  </si>
-  <si>
-    <t>[0.0444 0.1334]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.3389]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.2721]</t>
-  </si>
-  <si>
-    <t>[0.0278 0.45  ]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.2167]</t>
-  </si>
-  <si>
-    <t>[0.0167 0.7611]</t>
-  </si>
-  <si>
-    <t>[0.1222 0.9666]</t>
   </si>
 </sst>
 </file>
@@ -610,123 +568,123 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -734,51 +692,51 @@
         <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
